--- a/ucla_cse.xlsx
+++ b/ucla_cse.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11118"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveli/Developer/Python/ECE143_Project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34EAA93-0771-CB4A-B1D3-6B11A99FFD47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11520" yWindow="2040" windowWidth="17280" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -430,12 +436,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -443,8 +449,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -490,15 +503,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,7 +561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,9 +593,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,6 +645,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -781,12 +838,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
@@ -5952,6 +6015,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ucla_cse.xlsx
+++ b/ucla_cse.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11118"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steveli/Developer/Python/ECE143_Project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34EAA93-0771-CB4A-B1D3-6B11A99FFD47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="2040" windowWidth="17280" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>06</t>
   </si>
@@ -73,6 +67,9 @@
     <t>language processing</t>
   </si>
   <si>
+    <t>developed special</t>
+  </si>
+  <si>
     <t>special proﬁciency</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
     <t>digital systems</t>
   </si>
   <si>
+    <t>arranged limited</t>
+  </si>
+  <si>
     <t>distributed systems</t>
   </si>
   <si>
@@ -169,6 +169,9 @@
     <t>context-free languages</t>
   </si>
   <si>
+    <t>requisite electrical</t>
+  </si>
+  <si>
     <t>advanced computer</t>
   </si>
   <si>
@@ -211,6 +214,12 @@
     <t>modeling techniques</t>
   </si>
   <si>
+    <t>number theory</t>
+  </si>
+  <si>
+    <t>science theory</t>
+  </si>
+  <si>
     <t>majors introduction</t>
   </si>
   <si>
@@ -223,84 +232,72 @@
     <t>assembly language</t>
   </si>
   <si>
+    <t>embedded systems</t>
+  </si>
+  <si>
+    <t>systems biology</t>
+  </si>
+  <si>
+    <t>memory management</t>
+  </si>
+  <si>
+    <t>distributed embedded</t>
+  </si>
+  <si>
+    <t>human genetics</t>
+  </si>
+  <si>
+    <t>analysis association</t>
+  </si>
+  <si>
+    <t>computer security</t>
+  </si>
+  <si>
+    <t>system design</t>
+  </si>
+  <si>
     <t>number systems</t>
   </si>
   <si>
-    <t>memory management</t>
-  </si>
-  <si>
-    <t>computation speciﬁcation</t>
+    <t>upper division</t>
+  </si>
+  <si>
+    <t>science seminar</t>
+  </si>
+  <si>
+    <t>markov chains</t>
+  </si>
+  <si>
+    <t>network architecture</t>
+  </si>
+  <si>
+    <t>transport protocols</t>
+  </si>
+  <si>
+    <t>parallel architectures</t>
   </si>
   <si>
     <t>interprocess communication</t>
   </si>
   <si>
-    <t>query languages</t>
-  </si>
-  <si>
-    <t>embedded systems</t>
-  </si>
-  <si>
-    <t>systems biology</t>
-  </si>
-  <si>
-    <t>arranged limited</t>
-  </si>
-  <si>
-    <t>distributed embedded</t>
-  </si>
-  <si>
-    <t>human genetics</t>
-  </si>
-  <si>
-    <t>analysis association</t>
-  </si>
-  <si>
-    <t>computer security</t>
-  </si>
-  <si>
-    <t>system design</t>
-  </si>
-  <si>
-    <t>upper division</t>
-  </si>
-  <si>
-    <t>science seminar</t>
-  </si>
-  <si>
-    <t>markov chains</t>
-  </si>
-  <si>
-    <t>network architecture</t>
-  </si>
-  <si>
-    <t>transport protocols</t>
-  </si>
-  <si>
-    <t>parallel architectures</t>
-  </si>
-  <si>
     <t>oral presentations</t>
   </si>
   <si>
+    <t>probability theory</t>
+  </si>
+  <si>
     <t>one-way functions</t>
   </si>
   <si>
+    <t>proofs zero-knowledge</t>
+  </si>
+  <si>
+    <t>zero-knowledge proofs</t>
+  </si>
+  <si>
     <t>computer simulation</t>
   </si>
   <si>
-    <t>simulation methods</t>
-  </si>
-  <si>
-    <t>control system</t>
-  </si>
-  <si>
-    <t>pc laboratory</t>
-  </si>
-  <si>
-    <t>research results</t>
-  </si>
-  <si>
     <t>artificial intelligence</t>
   </si>
   <si>
@@ -316,6 +313,9 @@
     <t>artificial life</t>
   </si>
   <si>
+    <t>enforced requisite</t>
+  </si>
+  <si>
     <t>computational genetics</t>
   </si>
   <si>
@@ -325,6 +325,9 @@
     <t>school introduction</t>
   </si>
   <si>
+    <t>computational interdisciplinary</t>
+  </si>
+  <si>
     <t>interdisciplinary research</t>
   </si>
   <si>
@@ -337,24 +340,18 @@
     <t>admixed populations</t>
   </si>
   <si>
-    <t>populations population</t>
-  </si>
-  <si>
-    <t>structural variation</t>
-  </si>
-  <si>
-    <t>variation model</t>
+    <t>computer vision</t>
+  </si>
+  <si>
+    <t>science /</t>
+  </si>
+  <si>
+    <t>cm computational</t>
   </si>
   <si>
     <t>computational techniques</t>
   </si>
   <si>
-    <t>computer vision</t>
-  </si>
-  <si>
-    <t>science /</t>
-  </si>
-  <si>
     <t>thesis research</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>protocols routing</t>
   </si>
   <si>
-    <t>include introduction</t>
-  </si>
-  <si>
     <t>interdisciplinary problems</t>
   </si>
   <si>
@@ -382,66 +376,54 @@
     <t>algorithmic techniques</t>
   </si>
   <si>
+    <t>enforced requisites</t>
+  </si>
+  <si>
+    <t>civil engineering</t>
+  </si>
+  <si>
+    <t>software systems</t>
+  </si>
+  <si>
+    <t>hands-on experience</t>
+  </si>
+  <si>
+    <t>research literature</t>
+  </si>
+  <si>
     <t>cm introduction</t>
   </si>
   <si>
-    <t>enforced requisites</t>
-  </si>
-  <si>
-    <t>civil engineering</t>
-  </si>
-  <si>
-    <t>software systems</t>
-  </si>
-  <si>
-    <t>hands-on experience</t>
-  </si>
-  <si>
-    <t>research literature</t>
-  </si>
-  <si>
     <t>techniques include</t>
   </si>
   <si>
     <t>language paradigms</t>
   </si>
   <si>
-    <t>language design</t>
-  </si>
-  <si>
-    <t>information retrieval</t>
-  </si>
-  <si>
-    <t>engineering m116c</t>
-  </si>
-  <si>
     <t>software engineering</t>
   </si>
   <si>
+    <t>real-time three-dimensional</t>
+  </si>
+  <si>
     <t>three-dimensional animation</t>
   </si>
   <si>
     <t>automated software</t>
   </si>
   <si>
-    <t>computational approaches</t>
-  </si>
-  <si>
     <t>bioengineering cm</t>
-  </si>
-  <si>
-    <t>biological questions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -449,15 +431,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -503,23 +478,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -561,7 +528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,27 +560,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,24 +594,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -838,18 +769,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="4" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
@@ -1105,34 +1030,34 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1146,34 +1071,34 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1181,40 +1106,40 @@
         <v>19</v>
       </c>
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
       <c r="L9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1225,37 +1150,37 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1266,37 +1191,37 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1304,40 +1229,40 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1348,37 +1273,37 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1386,40 +1311,40 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1427,40 +1352,40 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1471,37 +1396,37 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1512,19 +1437,19 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -1568,13 +1493,13 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1594,37 +1519,37 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1635,19 +1560,19 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1717,37 +1642,37 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1758,28 +1683,28 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1823,13 +1748,13 @@
         <v>4</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1846,31 +1771,31 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1893,25 +1818,25 @@
         <v>4</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K26">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1943,16 +1868,16 @@
         <v>5</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1960,7 +1885,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1975,25 +1900,25 @@
         <v>4</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2001,7 +1926,7 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -2010,31 +1935,31 @@
         <v>4</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2045,37 +1970,37 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2086,37 +2011,37 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2130,25 +2055,25 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2212,34 +2137,34 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2250,37 +2175,37 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2294,34 +2219,34 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2414,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -2455,37 +2380,37 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2537,37 +2462,37 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2578,37 +2503,37 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2660,34 +2585,34 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -2871,31 +2796,31 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2985,7 +2910,7 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2994,31 +2919,31 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3026,7 +2951,7 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3035,22 +2960,22 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3067,7 +2992,7 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3097,10 +3022,10 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3108,7 +3033,7 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3152,37 +3077,37 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3193,37 +3118,37 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3275,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3296,16 +3221,16 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>3</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3439,37 +3364,37 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3697,25 +3622,25 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3729,13 +3654,13 @@
         <v>3</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3770,13 +3695,13 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -3832,13 +3757,13 @@
         <v>3</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3873,13 +3798,13 @@
         <v>3</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3896,13 +3821,13 @@
         <v>3</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3917,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4218,37 +4143,37 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4271,25 +4196,25 @@
         <v>7</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K84">
         <v>6</v>
       </c>
       <c r="L84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M84">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4303,34 +4228,34 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4344,34 +4269,34 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H86">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I86">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J86">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K86">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L86">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4385,34 +4310,34 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L87">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4450,10 +4375,10 @@
         <v>3</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4470,31 +4395,31 @@
         <v>3</v>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H89">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J89">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K89">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="L89">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="M89">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4517,25 +4442,25 @@
         <v>3</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M90">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4558,25 +4483,25 @@
         <v>3</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J91">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K91">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4599,25 +4524,25 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4652,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4675,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>3</v>
@@ -4693,13 +4618,13 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4716,10 +4641,10 @@
         <v>3</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4757,10 +4682,10 @@
         <v>3</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4801,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -4836,34 +4761,34 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4880,31 +4805,31 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4921,31 +4846,31 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4971,22 +4896,22 @@
         <v>4</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5009,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -5056,19 +4981,19 @@
         <v>3</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5097,19 +5022,19 @@
         <v>3</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5141,7 +5066,7 @@
         <v>3</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -5340,22 +5265,22 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J110">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K110">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L110">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5384,19 +5309,19 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K111">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L111">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M111">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5428,16 +5353,16 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M112">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5475,10 +5400,10 @@
         <v>4</v>
       </c>
       <c r="L113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5554,13 +5479,13 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5639,10 +5564,10 @@
         <v>3</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5677,13 +5602,13 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M118">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5718,13 +5643,13 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5759,13 +5684,13 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5803,10 +5728,10 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5844,178 +5769,13 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M122">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <v>4</v>
-      </c>
-      <c r="M123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>3</v>
-      </c>
-      <c r="M124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>